--- a/企业站表结构.xlsx
+++ b/企业站表结构.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C7FBF6-FB5E-434A-B621-BD9F6B517060}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9496ADBA-5AD9-4493-9C57-AC2499464114}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>管理员表 qy_admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,6 +43,54 @@
   </si>
   <si>
     <t>管理员密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏目管理 qy_cate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏目类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级栏目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、列表2、单页/默认值"1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值"0"最上级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,11 +145,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,54 +431,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/企业站表结构.xlsx
+++ b/企业站表结构.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9496ADBA-5AD9-4493-9C57-AC2499464114}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41534E07-2B8B-4617-8E5F-A3ED8E06C93A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理员名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +87,10 @@
   </si>
   <si>
     <t>默认值"0"最上级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -458,28 +458,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -487,40 +487,40 @@
     </row>
     <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/企业站表结构.xlsx
+++ b/企业站表结构.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41534E07-2B8B-4617-8E5F-A3ED8E06C93A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF41B4C-4E91-47EF-A916-462C9946849D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>管理员表 qy_admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,134 @@
   </si>
   <si>
     <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediumint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章缩略图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cateid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属栏目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar "60"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar "100"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar "255"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varcahr "30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varcahr "255"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediumint 默认值0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int "10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章表 qy_article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,10 +651,140 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/企业站表结构.xlsx
+++ b/企业站表结构.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF41B4C-4E91-47EF-A916-462C9946849D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A207F3B-B16B-4C47-AFBD-83B5476C2506}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>管理员表 qy_admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、列表2、单页/默认值"1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认值"0"最上级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +215,46 @@
   </si>
   <si>
     <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、文章列表2、单页3、图片列表/默认值"1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接表 qy_link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titlie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -591,7 +627,7 @@
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -637,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -648,12 +684,12 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -661,130 +697,171 @@
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/企业站表结构.xlsx
+++ b/企业站表结构.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A207F3B-B16B-4C47-AFBD-83B5476C2506}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F909CA0-6586-4B9A-9736-71CFCC1E78F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>管理员表 qy_admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,58 @@
   </si>
   <si>
     <t>链接地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置表 qy_conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置项id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置中文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置英文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置类型1单行文本框2文本域3单选按钮4复选按钮5下拉菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置可选值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -856,12 +908,69 @@
         <v>58</v>
       </c>
     </row>
+    <row r="27" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/企业站表结构.xlsx
+++ b/企业站表结构.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F909CA0-6586-4B9A-9736-71CFCC1E78F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4589AE1-4C6D-456C-BCE7-8D067D503D18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/企业站表结构.xlsx
+++ b/企业站表结构.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4589AE1-4C6D-456C-BCE7-8D067D503D18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694C9AC3-32C5-4652-A214-F60D01D59B02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>管理员表 qy_admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +307,54 @@
   </si>
   <si>
     <t>配置可选值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,284 +741,332 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="38" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="39" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/企业站表结构.xlsx
+++ b/企业站表结构.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694C9AC3-32C5-4652-A214-F60D01D59B02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBC026B-882A-4B8B-BD86-AC8D50AF9E32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>管理员表 qy_admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发布时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int "10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文章表 qy_article</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,6 +347,10 @@
   </si>
   <si>
     <t>管理员ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +694,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,50 +739,50 @@
     </row>
     <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -821,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -837,7 +833,7 @@
     </row>
     <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -856,13 +852,13 @@
     </row>
     <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -873,18 +869,18 @@
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -895,7 +891,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -906,7 +902,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -917,7 +913,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -928,7 +924,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -939,26 +935,26 @@
         <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>19</v>
@@ -966,7 +962,7 @@
     </row>
     <row r="28" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -974,39 +970,39 @@
     </row>
     <row r="29" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1014,50 +1010,50 @@
     </row>
     <row r="34" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/企业站表结构.xlsx
+++ b/企业站表结构.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBC026B-882A-4B8B-BD86-AC8D50AF9E32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE172A2-A4AE-4A8B-86BE-2413949B1F36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
   <si>
     <t>管理员表 qy_admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,98 @@
   </si>
   <si>
     <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组表 qy_auth_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启状态默认1 开启 0关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表 qy_auth_rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器方法名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1056,8 +1148,124 @@
         <v>69</v>
       </c>
     </row>
+    <row r="40" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A16:D16"/>

--- a/企业站表结构.xlsx
+++ b/企业站表结构.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE172A2-A4AE-4A8B-86BE-2413949B1F36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E392030-7E75-4EF0-A031-71175B02A25D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>管理员表 qy_admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关联表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户组表 qy_auth_group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,6 +439,26 @@
   </si>
   <si>
     <t>权限状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组明细表 qy_auth_group_access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1150,7 +1166,7 @@
     </row>
     <row r="40" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1158,39 +1174,39 @@
     </row>
     <row r="41" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1198,72 +1214,92 @@
     </row>
     <row r="46" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="53" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>83</v>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A54:D54"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A1:D1"/>
